--- a/data_output/prism_passive/all_passive_force at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>428.67276391940612</v>
+        <v>428.67276173670899</v>
       </c>
       <c r="C2">
-        <v>474.90393550245329</v>
+        <v>474.90393296527577</v>
       </c>
       <c r="D2">
-        <v>537.40951809294199</v>
+        <v>537.4095150293241</v>
       </c>
       <c r="E2">
-        <v>560.12802632649198</v>
+        <v>560.12802397506209</v>
       </c>
       <c r="F2">
-        <v>631.361932848793</v>
+        <v>631.3619282004114</v>
       </c>
       <c r="G2">
-        <v>671.42657894631702</v>
+        <v>671.42657598679807</v>
       </c>
       <c r="H2">
-        <v>701.01481457324815</v>
+        <v>701.01481043800231</v>
       </c>
       <c r="I2">
-        <v>655.74965665498189</v>
+        <v>655.74965351245453</v>
       </c>
       <c r="J2">
-        <v>647.60631071452076</v>
+        <v>647.6063073521683</v>
       </c>
       <c r="K2">
-        <v>668.94799259772981</v>
+        <v>668.94798843511205</v>
       </c>
       <c r="L2">
-        <v>390.24672879896247</v>
+        <v>390.24672700974435</v>
       </c>
       <c r="N2">
-        <v>560.74536940928363</v>
+        <v>560.74536596201631</v>
       </c>
       <c r="O2">
-        <v>398.61166567309124</v>
+        <v>398.61166425469929</v>
       </c>
       <c r="P2">
-        <v>891.81305768781965</v>
+        <v>891.81304878115463</v>
       </c>
       <c r="Q2">
-        <v>467.81146061652726</v>
+        <v>467.81145887780008</v>
       </c>
       <c r="S2">
-        <v>1326.7332690296005</v>
+        <v>1326.7332603242437</v>
       </c>
       <c r="V2">
-        <v>889.35677238611777</v>
+        <v>889.35676817418607</v>
       </c>
       <c r="W2">
-        <v>494.00862571670058</v>
+        <v>494.00862316304256</v>
       </c>
       <c r="X2">
-        <v>428.04371923940795</v>
+        <v>428.04371594609125</v>
       </c>
       <c r="AA2">
-        <v>541.99150204072441</v>
+        <v>541.99149924301491</v>
       </c>
       <c r="AB2">
-        <v>316.74584355805899</v>
+        <v>316.74584234379904</v>
       </c>
       <c r="AC2">
-        <v>419.68010862792602</v>
+        <v>419.68010589944248</v>
       </c>
       <c r="AD2">
-        <v>305.24779540301677</v>
+        <v>305.24779420676248</v>
       </c>
       <c r="AE2">
-        <v>399.00219237317788</v>
+        <v>399.00218979208904</v>
       </c>
       <c r="AF2">
-        <v>730.77330608542127</v>
+        <v>730.77330105474221</v>
       </c>
       <c r="AG2">
-        <v>402.30169190342332</v>
+        <v>402.30169006476126</v>
       </c>
       <c r="AH2">
-        <v>568.86580424962642</v>
+        <v>568.86580133638836</v>
       </c>
       <c r="AI2">
-        <v>618.99732568460342</v>
+        <v>618.99732350085287</v>
       </c>
       <c r="AJ2">
-        <v>885.73960266357915</v>
+        <v>885.73959762919367</v>
       </c>
       <c r="AK2">
-        <v>339.52755644958472</v>
+        <v>339.52755504885613</v>
       </c>
       <c r="AL2">
-        <v>724.67661428253643</v>
+        <v>724.67661146989394</v>
       </c>
       <c r="AM2">
-        <v>715.43504767079787</v>
+        <v>715.43504452547893</v>
       </c>
       <c r="AN2">
-        <v>393.25618059184188</v>
+        <v>393.25617965248244</v>
       </c>
       <c r="AO2">
-        <v>671.9946413076201</v>
+        <v>671.99463809940585</v>
       </c>
       <c r="AQ2">
-        <v>626.63208642048494</v>
+        <v>626.63208474871317</v>
       </c>
       <c r="AR2">
-        <v>883.15816856582012</v>
+        <v>883.15816135649345</v>
       </c>
       <c r="AS2">
-        <v>712.73723140047207</v>
+        <v>712.7372284889401</v>
       </c>
       <c r="AU2">
-        <v>885.91894944278249</v>
+        <v>885.91894508466396</v>
       </c>
       <c r="AV2">
-        <v>365.14745408777213</v>
+        <v>365.14745270383929</v>
       </c>
       <c r="AW2">
-        <v>324.57065784188802</v>
+        <v>324.57065613051526</v>
       </c>
       <c r="AX2">
-        <v>487.39242577230289</v>
+        <v>487.39242396227081</v>
       </c>
       <c r="AY2">
-        <v>376.31062523757629</v>
+        <v>376.31062307394524</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>512.49327335466512</v>
+        <v>512.49327061677752</v>
       </c>
       <c r="C3">
-        <v>400.85986159836142</v>
+        <v>400.85985978664297</v>
       </c>
       <c r="E3">
-        <v>1126.0010586877556</v>
+        <v>1126.0010512836618</v>
       </c>
       <c r="F3">
-        <v>336.29201224394274</v>
+        <v>336.29201108502679</v>
       </c>
       <c r="G3">
-        <v>797.0862818958044</v>
+        <v>797.08627842048134</v>
       </c>
       <c r="H3">
-        <v>776.05382636010484</v>
+        <v>776.05382124275184</v>
       </c>
       <c r="J3">
-        <v>559.72124126359893</v>
+        <v>559.7212377036758</v>
       </c>
       <c r="K3">
-        <v>797.19089057552719</v>
+        <v>797.19088700441932</v>
       </c>
       <c r="L3">
-        <v>609.77669758581999</v>
+        <v>609.77669447281426</v>
       </c>
       <c r="M3">
-        <v>867.47159680491006</v>
+        <v>867.5187705663202</v>
       </c>
       <c r="N3">
-        <v>702.03251809558617</v>
+        <v>702.03251463894992</v>
       </c>
       <c r="P3">
-        <v>1002.5351929527978</v>
+        <v>1002.5351841013547</v>
       </c>
       <c r="Q3">
-        <v>551.84349567962181</v>
+        <v>551.84349320651893</v>
       </c>
       <c r="R3">
-        <v>479.48374982306041</v>
+        <v>479.48374785683899</v>
       </c>
       <c r="W3">
-        <v>490.41550307595304</v>
+        <v>490.41549971659634</v>
       </c>
       <c r="AA3">
-        <v>452.90152268104208</v>
+        <v>452.90152123468494</v>
       </c>
       <c r="AB3">
-        <v>345.95854320833104</v>
+        <v>345.95854164957427</v>
       </c>
       <c r="AC3">
-        <v>413.31709912632499</v>
+        <v>413.31709740266228</v>
       </c>
       <c r="AD3">
-        <v>517.73215641522609</v>
+        <v>517.73215387334687</v>
       </c>
       <c r="AE3">
-        <v>313.532012485932</v>
+        <v>313.53201113683554</v>
       </c>
       <c r="AF3">
-        <v>555.89566948963738</v>
+        <v>555.89566613133081</v>
       </c>
       <c r="AG3">
-        <v>439.21551416239117</v>
+        <v>439.21551109598971</v>
       </c>
       <c r="AH3">
-        <v>624.71304386635154</v>
+        <v>624.71304214343627</v>
       </c>
       <c r="AI3">
-        <v>436.65130754513348</v>
+        <v>436.65130551557201</v>
       </c>
       <c r="AJ3">
-        <v>891.0665802105824</v>
+        <v>891.06657617767462</v>
       </c>
       <c r="AK3">
-        <v>393.71038891556071</v>
+        <v>393.71038746315656</v>
       </c>
       <c r="AL3">
-        <v>647.79311825475315</v>
+        <v>647.79311421740499</v>
       </c>
       <c r="AM3">
-        <v>779.26151050358396</v>
+        <v>779.2615068409574</v>
       </c>
       <c r="AN3">
-        <v>402.15338122717043</v>
+        <v>402.15337977147959</v>
       </c>
       <c r="AO3">
-        <v>769.3392361418488</v>
+        <v>769.3392314817944</v>
       </c>
       <c r="AP3">
-        <v>477.76122243748887</v>
+        <v>477.76122080076794</v>
       </c>
       <c r="AQ3">
-        <v>438.37030615100247</v>
+        <v>438.37030456468756</v>
       </c>
       <c r="AS3">
-        <v>592.39934560378913</v>
+        <v>592.39934328575021</v>
       </c>
       <c r="AT3">
-        <v>365.00907948261312</v>
+        <v>365.00907803955073</v>
       </c>
       <c r="AU3">
-        <v>843.13871615233768</v>
+        <v>843.13871245780808</v>
       </c>
       <c r="AV3">
-        <v>363.59768230525452</v>
+        <v>363.59768107586638</v>
       </c>
       <c r="AW3">
-        <v>372.43792710377011</v>
+        <v>372.43792547992808</v>
       </c>
       <c r="AX3">
-        <v>650.83804111174186</v>
+        <v>650.83803860230182</v>
       </c>
       <c r="AY3">
-        <v>589.96386547108671</v>
+        <v>589.96386148257909</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 10deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>428.67276173670899</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>474.90393296527577</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>537.4095150293241</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>560.12802397506209</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>631.3619282004114</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>671.42657598679807</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>701.01481043800231</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>655.74965351245453</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>647.6063073521683</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>668.94798843511205</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>390.24672700974435</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>560.74536596201631</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>398.61166425469929</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>891.81304878115463</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>467.81145887780008</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1326.7332603242437</v>
@@ -570,52 +465,55 @@
         <v>428.04371594609125</v>
       </c>
       <c r="AA2">
-        <v>541.99149924301491</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>316.74584234379904</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>419.68010589944248</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>305.24779420676248</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>399.00218979208904</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>730.77330105474221</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>402.30169006476126</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>568.86580133638836</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>618.99732350085287</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>885.73959762919367</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>339.52755504885613</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>724.67661146989394</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>715.43504452547893</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>393.25617965248244</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>671.99463809940585</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>626.63208474871317</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>883.15816135649345</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>512.49327061677752</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>400.85985978664297</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1126.0010512836618</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>336.29201108502679</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>797.08627842048134</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>776.05382124275184</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>559.7212377036758</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>797.19088700441932</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>609.77669447281426</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>867.5187705663202</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>702.03251463894992</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1002.5351841013547</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>551.84349320651893</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>479.48374785683899</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>490.41549971659634</v>
       </c>
       <c r="AA3">
-        <v>452.90152123468494</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>345.95854164957427</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>413.31709740266228</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>517.73215387334687</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>313.53201113683554</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>555.89566613133081</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>439.21551109598971</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>624.71304214343627</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>436.65130551557201</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>891.06657617767462</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>393.71038746315656</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>647.79311421740499</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>779.2615068409574</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>402.15337977147959</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>769.3392314817944</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>477.76122080076794</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>438.37030456468756</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>592.39934328575021</v>

--- a/data_output/prism_passive/all_passive_force at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>428.67276391940612</v>
-      </c>
-      <c r="C2">
-        <v>474.90393550245329</v>
+        <v>398.61166425469929</v>
       </c>
       <c r="D2">
-        <v>537.40951809294199</v>
+        <v>393.25617965248244</v>
       </c>
       <c r="E2">
-        <v>560.12802632649198</v>
+        <v>626.63208474871317</v>
       </c>
       <c r="F2">
         <v>631.361932848793</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>512.49327335466512</v>
-      </c>
       <c r="C3">
-        <v>400.85986159836142</v>
+        <v>479.48374785683899</v>
+      </c>
+      <c r="D3">
+        <v>402.15337977147959</v>
       </c>
       <c r="E3">
-        <v>1126.0010586877556</v>
+        <v>416.48106036082805</v>
       </c>
       <c r="F3">
         <v>336.29201224394274</v>

--- a/data_output/prism_passive/all_passive_force at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 10deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>428.67276391940612</v>
+        <v>560.74536596201631</v>
       </c>
       <c r="C2">
-        <v>474.90393550245329</v>
+        <v>398.61166425469929</v>
       </c>
       <c r="D2">
-        <v>537.40951809294199</v>
+        <v>715.43504452547893</v>
       </c>
       <c r="E2">
-        <v>560.12802632649198</v>
+        <v>393.25617965248244</v>
       </c>
       <c r="F2">
         <v>631.361932848793</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>512.49327335466512</v>
-      </c>
-      <c r="C3">
-        <v>400.85986159836142</v>
+        <v>702.03251463894992</v>
+      </c>
+      <c r="D3">
+        <v>779.2615068409574</v>
       </c>
       <c r="E3">
-        <v>1126.0010586877556</v>
+        <v>402.15337977147959</v>
       </c>
       <c r="F3">
         <v>336.29201224394274</v>

--- a/data_output/prism_passive/all_passive_force at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 10deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>428.67276173670899</v>
+      </c>
+      <c r="C2">
+        <v>474.90393296527577</v>
+      </c>
+      <c r="D2">
+        <v>537.4095150293241</v>
+      </c>
+      <c r="E2">
+        <v>560.12802397506209</v>
+      </c>
+      <c r="F2">
+        <v>631.3619282004114</v>
+      </c>
+      <c r="G2">
+        <v>671.42657598679807</v>
+      </c>
+      <c r="H2">
+        <v>701.01481043800231</v>
+      </c>
+      <c r="I2">
+        <v>655.74965351245453</v>
+      </c>
+      <c r="J2">
+        <v>647.6063073521683</v>
+      </c>
+      <c r="K2">
+        <v>668.94798843511205</v>
+      </c>
+      <c r="L2">
+        <v>390.24672700974435</v>
+      </c>
+      <c r="N2">
         <v>560.74536596201631</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>398.61166425469929</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>891.81304878115463</v>
+      </c>
+      <c r="Q2">
+        <v>467.81145887780008</v>
+      </c>
+      <c r="S2">
+        <v>1326.7332603242437</v>
+      </c>
+      <c r="V2">
+        <v>889.35676817418607</v>
+      </c>
+      <c r="W2">
+        <v>494.00862316304256</v>
+      </c>
+      <c r="X2">
+        <v>428.04371594609125</v>
+      </c>
+      <c r="AA2">
+        <v>541.99149924301491</v>
+      </c>
+      <c r="AB2">
+        <v>316.74584234379904</v>
+      </c>
+      <c r="AC2">
+        <v>419.68010589944248</v>
+      </c>
+      <c r="AD2">
+        <v>305.24779420676248</v>
+      </c>
+      <c r="AE2">
+        <v>399.00218979208904</v>
+      </c>
+      <c r="AF2">
+        <v>730.77330105474221</v>
+      </c>
+      <c r="AG2">
+        <v>402.30169006476126</v>
+      </c>
+      <c r="AH2">
+        <v>568.86580133638836</v>
+      </c>
+      <c r="AI2">
+        <v>618.99732350085287</v>
+      </c>
+      <c r="AJ2">
+        <v>885.73959762919367</v>
+      </c>
+      <c r="AK2">
+        <v>339.52755504885613</v>
+      </c>
+      <c r="AL2">
+        <v>724.67661146989394</v>
+      </c>
+      <c r="AM2">
         <v>715.43504452547893</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>393.25617965248244</v>
       </c>
-      <c r="F2">
-        <v>631.361932848793</v>
-      </c>
-      <c r="G2">
-        <v>671.42657894631702</v>
-      </c>
-      <c r="H2">
-        <v>701.01481457324815</v>
-      </c>
-      <c r="I2">
-        <v>655.74965665498189</v>
-      </c>
-      <c r="J2">
-        <v>647.60631071452076</v>
-      </c>
-      <c r="K2">
-        <v>668.94799259772981</v>
-      </c>
-      <c r="L2">
-        <v>390.24672879896247</v>
-      </c>
-      <c r="N2">
-        <v>560.74536940928363</v>
-      </c>
-      <c r="O2">
-        <v>398.61166567309124</v>
-      </c>
-      <c r="P2">
-        <v>891.81305768781965</v>
-      </c>
-      <c r="Q2">
-        <v>467.81146061652726</v>
-      </c>
-      <c r="S2">
-        <v>1326.7332690296005</v>
-      </c>
-      <c r="V2">
-        <v>889.35677238611777</v>
-      </c>
-      <c r="W2">
-        <v>494.00862571670058</v>
-      </c>
-      <c r="X2">
-        <v>428.04371923940795</v>
-      </c>
-      <c r="AA2">
-        <v>541.99150204072441</v>
-      </c>
-      <c r="AB2">
-        <v>316.74584355805899</v>
-      </c>
-      <c r="AC2">
-        <v>419.68010862792602</v>
-      </c>
-      <c r="AD2">
-        <v>305.24779540301677</v>
-      </c>
-      <c r="AE2">
-        <v>399.00219237317788</v>
-      </c>
-      <c r="AF2">
-        <v>730.77330608542127</v>
-      </c>
-      <c r="AG2">
-        <v>402.30169190342332</v>
-      </c>
-      <c r="AH2">
-        <v>568.86580424962642</v>
-      </c>
-      <c r="AI2">
-        <v>618.99732568460342</v>
-      </c>
-      <c r="AJ2">
-        <v>885.73960266357915</v>
-      </c>
-      <c r="AK2">
-        <v>339.52755644958472</v>
-      </c>
-      <c r="AL2">
-        <v>724.67661428253643</v>
-      </c>
-      <c r="AM2">
-        <v>715.43504767079787</v>
-      </c>
-      <c r="AN2">
-        <v>393.25618059184188</v>
-      </c>
       <c r="AO2">
-        <v>671.9946413076201</v>
+        <v>671.99463809940585</v>
       </c>
       <c r="AQ2">
-        <v>626.63208642048494</v>
+        <v>626.63208474871317</v>
       </c>
       <c r="AR2">
-        <v>883.15816856582012</v>
+        <v>883.15816135649345</v>
       </c>
       <c r="AS2">
-        <v>712.73723140047207</v>
+        <v>712.7372284889401</v>
       </c>
       <c r="AU2">
-        <v>885.91894944278249</v>
+        <v>885.91894508466396</v>
       </c>
       <c r="AV2">
-        <v>365.14745408777213</v>
+        <v>365.14745270383929</v>
       </c>
       <c r="AW2">
-        <v>324.57065784188802</v>
+        <v>324.57065613051526</v>
       </c>
       <c r="AX2">
-        <v>487.39242577230289</v>
+        <v>487.39242396227081</v>
       </c>
       <c r="AY2">
-        <v>376.31062523757629</v>
+        <v>376.31062307394524</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>512.49327061677752</v>
+      </c>
+      <c r="C3">
+        <v>400.85985978664297</v>
+      </c>
+      <c r="E3">
+        <v>1126.0010512836618</v>
+      </c>
+      <c r="F3">
+        <v>336.29201108502679</v>
+      </c>
+      <c r="G3">
+        <v>797.08627842048134</v>
+      </c>
+      <c r="H3">
+        <v>776.05382124275184</v>
+      </c>
+      <c r="J3">
+        <v>559.7212377036758</v>
+      </c>
+      <c r="K3">
+        <v>797.19088700441932</v>
+      </c>
+      <c r="L3">
+        <v>609.77669447281426</v>
+      </c>
+      <c r="M3">
+        <v>867.5187705663202</v>
+      </c>
+      <c r="N3">
         <v>702.03251463894992</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1002.5351841013547</v>
+      </c>
+      <c r="Q3">
+        <v>551.84349320651893</v>
+      </c>
+      <c r="R3">
+        <v>479.48374785683899</v>
+      </c>
+      <c r="W3">
+        <v>492.45867404827914</v>
+      </c>
+      <c r="AA3">
+        <v>452.90152123468494</v>
+      </c>
+      <c r="AB3">
+        <v>345.95854164957427</v>
+      </c>
+      <c r="AC3">
+        <v>413.31709740266228</v>
+      </c>
+      <c r="AD3">
+        <v>517.73215387334687</v>
+      </c>
+      <c r="AE3">
+        <v>313.53201113683554</v>
+      </c>
+      <c r="AF3">
+        <v>555.89566613133081</v>
+      </c>
+      <c r="AG3">
+        <v>439.21551109598971</v>
+      </c>
+      <c r="AH3">
+        <v>527.12205352085391</v>
+      </c>
+      <c r="AI3">
+        <v>436.65130551557201</v>
+      </c>
+      <c r="AJ3">
+        <v>891.06657617767462</v>
+      </c>
+      <c r="AK3">
+        <v>393.71038746315656</v>
+      </c>
+      <c r="AL3">
+        <v>647.79311421740499</v>
+      </c>
+      <c r="AM3">
         <v>779.2615068409574</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>402.15337977147959</v>
       </c>
-      <c r="F3">
-        <v>336.29201224394274</v>
-      </c>
-      <c r="G3">
-        <v>797.0862818958044</v>
-      </c>
-      <c r="H3">
-        <v>776.05382636010484</v>
-      </c>
-      <c r="J3">
-        <v>559.72124126359893</v>
-      </c>
-      <c r="K3">
-        <v>797.19089057552719</v>
-      </c>
-      <c r="L3">
-        <v>609.77669758581999</v>
-      </c>
-      <c r="M3">
-        <v>867.47159680491006</v>
-      </c>
-      <c r="N3">
-        <v>702.03251809558617</v>
-      </c>
-      <c r="P3">
-        <v>1002.5351929527978</v>
-      </c>
-      <c r="Q3">
-        <v>551.84349567962181</v>
-      </c>
-      <c r="R3">
-        <v>479.48374982306041</v>
-      </c>
-      <c r="W3">
-        <v>492.45867729820662</v>
-      </c>
-      <c r="AA3">
-        <v>452.90152268104208</v>
-      </c>
-      <c r="AB3">
-        <v>345.95854320833104</v>
-      </c>
-      <c r="AC3">
-        <v>413.31709912632499</v>
-      </c>
-      <c r="AD3">
-        <v>517.73215641522609</v>
-      </c>
-      <c r="AE3">
-        <v>313.532012485932</v>
-      </c>
-      <c r="AF3">
-        <v>555.89566948963738</v>
-      </c>
-      <c r="AG3">
-        <v>439.21551416239117</v>
-      </c>
-      <c r="AH3">
-        <v>527.12205509420335</v>
-      </c>
-      <c r="AI3">
-        <v>436.65130754513348</v>
-      </c>
-      <c r="AJ3">
-        <v>891.0665802105824</v>
-      </c>
-      <c r="AK3">
-        <v>393.71038891556071</v>
-      </c>
-      <c r="AL3">
-        <v>647.79311825475315</v>
-      </c>
-      <c r="AM3">
-        <v>779.26151050358396</v>
-      </c>
-      <c r="AN3">
-        <v>402.15338122717043</v>
-      </c>
       <c r="AO3">
-        <v>769.3392361418488</v>
+        <v>769.3392314817944</v>
       </c>
       <c r="AP3">
-        <v>477.76122243748887</v>
+        <v>477.76122080076794</v>
       </c>
       <c r="AQ3">
-        <v>416.48106197954934</v>
+        <v>416.48106036082805</v>
       </c>
       <c r="AS3">
-        <v>592.39934560378913</v>
+        <v>592.39934328575021</v>
       </c>
       <c r="AT3">
-        <v>365.00907948261312</v>
+        <v>365.00907803955073</v>
       </c>
       <c r="AU3">
-        <v>843.13871615233768</v>
+        <v>843.13871245780808</v>
       </c>
       <c r="AV3">
-        <v>363.59768230525452</v>
+        <v>363.59768107586638</v>
       </c>
       <c r="AW3">
-        <v>372.43792710377011</v>
+        <v>372.43792547992808</v>
       </c>
       <c r="AX3">
-        <v>650.83804111174186</v>
+        <v>650.83803860230182</v>
       </c>
       <c r="AY3">
-        <v>589.96386547108671</v>
+        <v>589.96386148257909</v>
       </c>
     </row>
   </sheetData>
